--- a/Office/testFile/2020年销售数据.xlsx
+++ b/Office/testFile/2020年销售数据.xlsx
@@ -2992,7 +2992,7 @@
   <dimension ref="A1:G1946"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15" customHeight="1" outlineLevelCol="6"/>
